--- a/SpecFlow.Contrib.JsonData.SpecNUnitTests/Features/TestData/Users.xlsx
+++ b/SpecFlow.Contrib.JsonData.SpecNUnitTests/Features/TestData/Users.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\SpecFlow.Contrib.JsonData\SpecFlow.Contrib.JsonData.SpecNUnitTests\Features\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4479B518-7DD1-4FC3-AD75-13D3BDAE3343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F526CF70-A218-4DC1-BE03-B8096F38BD4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -382,7 +382,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
